--- a/classfiers/nano/svm/nearmiss/nano-svm-sigmoid-nearmiss-results.xlsx
+++ b/classfiers/nano/svm/nearmiss/nano-svm-sigmoid-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.75</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7275</v>
+        <v>0.6761904761904762</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.6363636363636365</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6973684210526316</v>
+        <v>0.7261904761904762</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.6</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4394736842105263</v>
+        <v>0.6285714285714286</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.625</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6153846153846154</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.6749999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5692890442890444</v>
+        <v>0.6870940170940172</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5852631578947369</v>
+        <v>0.6942857142857142</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5566325026072572</v>
+        <v>0.6516407308311825</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7097105263157895</v>
+        <v>0.7211904761904762</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/svm/nearmiss/nano-svm-sigmoid-nearmiss-results.xlsx
+++ b/classfiers/nano/svm/nearmiss/nano-svm-sigmoid-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6761904761904762</v>
+        <v>0.670360110803324</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6363636363636365</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7261904761904762</v>
+        <v>0.8587257617728532</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6</v>
+        <v>0.6875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5853658536585366</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.7313019390581718</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.75</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6749999999999999</v>
+        <v>0.8318713450292397</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6870940170940172</v>
+        <v>0.7088438735177865</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6942857142857142</v>
+        <v>0.7157894736842105</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6516407308311825</v>
+        <v>0.6739031339031338</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7211904761904762</v>
+        <v>0.8184518313327178</v>
       </c>
     </row>
   </sheetData>
